--- a/medicine/Mort/Nécropole_nationale_de_Maucourt/Nécropole_nationale_de_Maucourt.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Maucourt/Nécropole_nationale_de_Maucourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Maucourt</t>
+          <t>Nécropole_nationale_de_Maucourt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Maucourt est un cimetière militaire français de la Grande Guerre situé sur le territoire de la commune de Maucourt, dans le département de la Somme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Maucourt</t>
+          <t>Nécropole_nationale_de_Maucourt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire est situé au nord du village, il a une surface de 1,75 ha. Il a été édifié en 1920 et contient 5 272 dépouilles dont 1 534 réparties dans six ossuaires[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire est situé au nord du village, il a une surface de 1,75 ha. Il a été édifié en 1920 et contient 5 272 dépouilles dont 1 534 réparties dans six ossuaires.
 On y a également réuni les tombes de vingt-quatre Français tués au cours de la Seconde Guerre mondiale au cours de la Campagne de France de 1940.
-Le 17 avril 1943, un bombardier britannique était abattu par la DCA allemande. Le corps des six membres d'équipage, cinq Britanniques et un Canadien, ont été inhumés dans ce cimetière[2].
+Le 17 avril 1943, un bombardier britannique était abattu par la DCA allemande. Le corps des six membres d'équipage, cinq Britanniques et un Canadien, ont été inhumés dans ce cimetière.
 </t>
         </is>
       </c>
